--- a/FluentForever_Malayalam_Perfect/working_data.xlsx
+++ b/FluentForever_Malayalam_Perfect/working_data.xlsx
@@ -540,7 +540,11 @@
           <t>He is with me.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_02.mp3]</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -574,7 +578,11 @@
           <t>She danced along with the song.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_03.mp3]</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -608,7 +616,11 @@
           <t>I need some money along with me.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_04.mp3]</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -642,7 +654,11 @@
           <t>We played together.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_05.mp3]</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -676,7 +692,11 @@
           <t>She walked with him.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_06.mp3]</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -710,7 +730,11 @@
           <t>I took the pen along with the book.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_07.mp3]</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -744,7 +768,11 @@
           <t>Will you come with me tomorrow?</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_08.mp3]</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -778,7 +806,11 @@
           <t>Father went to the shop with mother.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_09.mp3]</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -812,7 +844,11 @@
           <t>She knew sadness along with happiness.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_10.mp3]</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/FluentForever_Malayalam_Perfect/working_data.xlsx
+++ b/FluentForever_Malayalam_Perfect/working_data.xlsx
@@ -506,8 +506,16 @@
           <t>I went with my mother.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_01.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,7 +553,11 @@
           <t>[sound:0003_ഒപ്പം_02.mp3]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_02.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,7 +595,11 @@
           <t>[sound:0003_ഒപ്പം_03.mp3]</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_03.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,7 +637,11 @@
           <t>[sound:0003_ഒപ്പം_04.mp3]</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_04.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -659,7 +679,11 @@
           <t>[sound:0003_ഒപ്പം_05.mp3]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_05.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -697,7 +721,11 @@
           <t>[sound:0003_ഒപ്പം_06.mp3]</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_06.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,7 +763,11 @@
           <t>[sound:0003_ഒപ്പം_07.mp3]</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_07.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -773,7 +805,11 @@
           <t>[sound:0003_ഒപ്പം_08.mp3]</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_08.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -811,7 +847,11 @@
           <t>[sound:0003_ഒപ്പം_09.mp3]</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_09.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -849,7 +889,11 @@
           <t>[sound:0003_ഒപ്പം_10.mp3]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_10.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FluentForever_Malayalam_Perfect/working_data.xlsx
+++ b/FluentForever_Malayalam_Perfect/working_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,422 +478,1062 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_01</t>
+          <t>0001_ദി_01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ഞാൻ അമ്മയുടെ ഒപ്പം പോയി.</t>
+          <t>ദി പുസ്തകം എവിടെ?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/ɲaːn̪ amːɐjuːʈe oːpːam poːji/</t>
+          <t>/di pustakam eviṭe?/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>I went with my mother.</t>
+          <t>Where is the book?</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_01.mp3]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_01.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_02</t>
+          <t>0001_ദി_02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>അവൻ എന്റെ ഒപ്പം ഉണ്ട്.</t>
+          <t>ദി ആൾ നല്ലവൻ ആണ്.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/ɐʋɐn en̪d̪e oːpːam uɳʈɨ/</t>
+          <t>/di aaḷ nallavan aaṇ./</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>He is with me.</t>
+          <t>The man is good.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_02.mp3]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_02.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_03</t>
+          <t>0001_ദി_03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>അവൾ പാട്ടിന്റെ ഒപ്പം നൃത്തം ചെയ്തു.</t>
+          <t>ഞാൻ ദി സിനിമ കണ്ടു.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/ɐʋɐɭ paːʈːin̪t̪e oːpːam n̪r̥t̪ːam t͡ʃeɪ̯t̪u/</t>
+          <t>/ɲaan di sinima kaṇṭu./</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>She danced along with the song.</t>
+          <t>I saw the movie.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_03.mp3]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_03.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_04</t>
+          <t>0001_ദി_04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>എനിക്ക് കുറച്ച് പണം ഒപ്പം വേണം.</t>
+          <t>അവൾ ദി പാട്ട് പാടി.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/enɪkːɨ kʊrɐt͡ʃːɨ paɳɐm oːpːam ʋeːɳɐm/</t>
+          <t>/avaḷ di paatt paati./</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I need some money along with me.</t>
+          <t>She sang the song.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_04.mp3]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_04.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_05</t>
+          <t>0001_ദി_05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ഞങ്ങൾ ഒപ്പം കളിച്ചു.</t>
+          <t>ഇത് ദി വീട് ആണ്.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/ɲɐŋŋɐɭ oːpːam kɐɭɪt͡ʃːu/</t>
+          <t>/ith di veet aahn./</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>We played together.</t>
+          <t>This is the house.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_05.mp3]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_05.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_06</t>
+          <t>0001_ദി_06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>അവൾ അവന്റെ ഒപ്പം നടന്നു.</t>
+          <t>ദി പരീക്ഷ അടുത്ത ആഴ്ച ആണ്.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/ɐʋɐɭ ɐʋɐn̪d̪e oːpːam nɐɖɐn̪n̪u/</t>
+          <t>/di pareekṣa aṭutta aazhcha aaṇ./</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>She walked with him.</t>
+          <t>The exam is next week.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_06.mp3]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_06.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_07</t>
+          <t>0001_ദി_07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>പുസ്തകത്തിന്റെ ഒപ്പം പേനയും എടുത്തു.</t>
+          <t>അവൻ ദി പണം കൊടുത്തു.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/pust̪ɐkɐt̪ːin̪d̪e oːpːam peːn̪ɐjum ed̪ut̪t̪u/</t>
+          <t>/avan di paṇam koṭuttu./</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I took the pen along with the book.</t>
+          <t>He gave the money.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_07.mp3]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_07.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_08</t>
+          <t>0001_ദി_08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>നാളെ നീ എന്റെ ഒപ്പം വരുമോ?</t>
+          <t>അമ്മ ദി ഭക്ഷണം ഉണ്ടാക്കി.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/n̪aːɭe n̪iː en̪d̪e oːpːam ʋɐɾumoː/</t>
+          <t>/amma di bhaക്ഷണം uṇṭaakki./</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Will you come with me tomorrow?</t>
+          <t>Mother made the food.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_08.mp3]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_08.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0003_ഒപ്പം_09</t>
+          <t>0001_ദി_09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ഒപ്പം</t>
+          <t>ദി</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>അച്ഛൻ അമ്മയുടെ ഒപ്പം കടയിൽ പോയി.</t>
+          <t>ഞങ്ങൾ ദി സ്ഥലം കണ്ടു.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/ɐt͡ʃːʰɐn amːɐjuːʈe oːpːam kɐɖɐjil poːji/</t>
+          <t>/ɲaṅṅaḷ di sthalam kaṇṭu./</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Father went to the shop with mother.</t>
+          <t>We saw the place.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[sound:0003_ഒപ്പം_09.mp3]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_09.jpg"&gt;</t>
-        </is>
-      </c>
+          <t>[sound:0001_ദി_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>0001_ദി_10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ദി</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The word 'ദി' (di) is a definite article in Malayalam, equivalent to 'the' in English. It specifies a particular noun.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ഇതാണ് ദി വഴി വീട്ടിലേക്ക്.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/ithaahn di vazhi veettilekk./</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>This is the way home.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[sound:0001_ദി_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>അത് ശരിയായിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/ɐt̪ɨ̆ ʃɐɾiyɐːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>That might be right.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>അവൻ നാളെ വരും, ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/ɐʋɐn̪ naːɭe ʋɐɾum, aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>He will come tomorrow, maybe.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>അവൾക്ക് സന്തോഷം ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/ɐʋɐɭkːɨ̆ saⁿt̪oːʃɐm aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>She will be happy.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>അത് എളുപ്പമായിരിക്കും എന്ന് തോന്നുന്നു.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/ɐt̪ɨ̆ eɭuppɐmaːyirikkum ennɨ t̪oːnnunnu/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>It seems like it might be easy.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>നാളെ മഴ പെയ്യാൻ സാധ്യതയുണ്ട്, ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>/naːɭe mɐɻɐ peyyɐːn̪ saːd̪͡ʱjɐt̪ɐjuɳɖɨ̆, aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>There is a chance of rain tomorrow, maybe.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>അവർക്ക് അത് അറിയാമായിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>/ɐʋɐrkːɨ̆ ɐt̪ɨ̆ ɐɾiyaːmaːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>They probably know it.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>അവൻ ഒരു ഡോക്ടർ ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>/ɐʋɐn̪ oɾu ɖoːkːt̪ɐr aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>He might be a doctor.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>അവർ വൈകി വരും, ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>/ɐʋɐr ʋɐiki ʋɐɾum, aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>They might come late.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ഈ സിനിമ നല്ലതായിരിക്കും എന്ന് കരുതുന്നു.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>/iː sinimɐ nɐllɐt̪aːyirikkum ennɨ kɐɾut̪unnɨ/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I think this movie might be good.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0002_ആയിരിക്കും_10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ആയിരിക്കും</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"ആയിരിക്കും" (aayirikkum) means "will be" or "might be" in English. It expresses possibility, likelihood, or future tense with a degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>അത് ഒരു നല്ല തീരുമാനം ആയിരിക്കും.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>/ɐt̪ɨ̆ oɾu nɐllɐ t̪iːɾumaːnɐm aːyirikkum/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>That might be a good decision.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ഞാൻ അമ്മയുടെ ഒപ്പം പോയി.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>/ɲaːn̪ ɐmːɐjuːɖeː oppɐm poːyiː/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I went with my mother.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_02</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>അവൻ എന്റെ ഒപ്പം ഉണ്ട്.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>/ɐʋɐn̪ endeː oppɐm uɳɖɨ̆/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>He is with me.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>അവൾ അവന്റെ ഒപ്പം കളിച്ചു.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>/ɐʋɐɭ ɐʋɐn̪deː oppɐm kɐɭit͡ʃːu/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>She played with him.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>അവർ ഒപ്പം നടന്നു.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>/ɐʋɐr oppɐm nɐɖɐn̪n̪u/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>They walked together.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_05</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>എനിക്ക് ഒരു പേന ഒപ്പം ഒരു പുസ്തകവും വേണം.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>/enikːɨ̆ oru peːnɐ oppɐm oru pustɐkɐvum veːɳɐm/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>I need a pen along with a book.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_06</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>അച്ഛൻ എന്റെ ഒപ്പം വരും.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>/ɐt͡ʃːʰɐn̪ endeː oppɐm vɐrum/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Father will come with me.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>അവൾ പാട്ടുപാടി, ഒപ്പം നൃത്തം ചെയ്തു.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>/ɐʋɐɭ paːt̪ːɨ̆ paːɖi oppɐm nrɨt̪ːɐm t͡ʃeːyt͡ʃu/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>She sang and danced as well.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_08</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>പരീക്ഷ ഒപ്പം പഠനം പ്രധാനമാണ്.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>/pɐriːkʂɐ oppɐm pɐɖɐnɐm prɐd͡ʒʰaːnɐmaːɳɨ̆/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Exams and studies are important.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0003_ഒപ്പം_09</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ഒപ്പം</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ഞങ്ങൾ ഒപ്പം സിനിമക്ക് പോയിരുന്നു.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>/ɲɐŋŋɐɭ oppɐm sinimɐkːɨ̆ poːyirun̪n̪u/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>We had gone to the cinema together.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>0003_ഒപ്പം_10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>ഒപ്പം</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>"ഒപ്പം" (Oppam) means "together with", "along with", or "besides" in English. It indicates accompaniment or being in association with something or someone.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>അവൾ സന്തോഷത്തിന്റെ ഒപ്പം വിഷമവും അറിഞ്ഞു.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>/ɐʋɐɭ sɐn̪t̪oːʃɐt̪ːin̪d̪e oːpːam ʋɪʃɐmɐʋum ɐrɪɲ͡ɲu/</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>She knew sadness along with happiness.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[sound:0003_ഒപ്പം_10.mp3]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>&lt;img src="0003_ഒപ്പം_10.jpg"&gt;</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"ഒപ്പം" (Oppam) in Malayalam means "together with," "along with," or "besides."</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>അവൻ എന്നെ ഒപ്പം കൂട്ടാൻ പറഞ്ഞു.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>/ɐʋɐn̪ enneː oppɐm kuːt̪ːaːn̪ pɐrɐɲːu/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>He asked me to join (him).</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FluentForever_Malayalam_Perfect/working_data.xlsx
+++ b/FluentForever_Malayalam_Perfect/working_data.xlsx
@@ -511,7 +511,11 @@
           <t>[sound:0001_ദി_01.mp3]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_01.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,7 +553,11 @@
           <t>[sound:0001_ദി_02.mp3]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_02.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,7 +595,11 @@
           <t>[sound:0001_ദി_03.mp3]</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_03.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +637,11 @@
           <t>[sound:0001_ദി_04.mp3]</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_04.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,7 +679,11 @@
           <t>[sound:0001_ദി_05.mp3]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_05.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,7 +721,11 @@
           <t>[sound:0001_ദി_06.mp3]</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_06.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -739,7 +763,11 @@
           <t>[sound:0001_ദി_07.mp3]</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_07.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -777,7 +805,11 @@
           <t>[sound:0001_ദി_08.mp3]</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_08.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -815,7 +847,11 @@
           <t>[sound:0001_ദി_09.mp3]</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_09.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -853,7 +889,11 @@
           <t>[sound:0001_ദി_10.mp3]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>&lt;img src="0001_ദി_10.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -886,8 +926,16 @@
           <t>That might be right.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_01.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,8 +968,16 @@
           <t>He will come tomorrow, maybe.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_02.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -954,8 +1010,16 @@
           <t>She will be happy.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_03.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -988,8 +1052,16 @@
           <t>It seems like it might be easy.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_04.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1022,8 +1094,16 @@
           <t>There is a chance of rain tomorrow, maybe.</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_05.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1056,8 +1136,16 @@
           <t>They probably know it.</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_06.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1090,8 +1178,16 @@
           <t>He might be a doctor.</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_07.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1124,8 +1220,16 @@
           <t>They might come late.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_08.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1158,8 +1262,16 @@
           <t>I think this movie might be good.</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_09.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1192,8 +1304,16 @@
           <t>That might be a good decision.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[sound:0002_ആയിരിക്കും_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>&lt;img src="0002_ആയിരിക്കും_10.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1226,8 +1346,16 @@
           <t>I went with my mother.</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_01.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1260,8 +1388,16 @@
           <t>He is with me.</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_02.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1294,8 +1430,16 @@
           <t>She played with him.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_03.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1328,8 +1472,16 @@
           <t>They walked together.</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_04.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1362,8 +1514,16 @@
           <t>I need a pen along with a book.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_05.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1396,8 +1556,16 @@
           <t>Father will come with me.</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_06.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1430,8 +1598,16 @@
           <t>She sang and danced as well.</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_07.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1464,8 +1640,16 @@
           <t>Exams and studies are important.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_08.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1498,8 +1682,16 @@
           <t>We had gone to the cinema together.</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_09.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1532,8 +1724,16 @@
           <t>He asked me to join (him).</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[sound:0003_ഒപ്പം_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>&lt;img src="0003_ഒപ്പം_10.jpg"&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FluentForever_Malayalam_Perfect/working_data.xlsx
+++ b/FluentForever_Malayalam_Perfect/working_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,6 +1735,1686 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0004_എ_01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>എന്റെ പേര് എന്നാണ്</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>/enʈe peɾe ɛnːaːɳʊ/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>What is my name?</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_01.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0004_എ_02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>അവൻ എത്ര വയസ്സാണ്</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>/əʋən etɾə ʋajassɑːɳʊ/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>How old is he?</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_02.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0004_എ_03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>എല്ലാ ദിവസവും എനിക്ക് പഠിക്കാം</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>/eɭɭa diʋasəʋu̥m enikʲ pɑtʰikʲkaːm/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I can study every day.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_03.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0004_എ_04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>കേരളത്തിലെ എറണാകുളം</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>/keɾɑɭɑtːile ɛɾɳaːkuɭɑm/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ernakulam in Kerala.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_04.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0004_എ_05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>എന്റെ അമ്മയുടെ പേര് എലിസബത്ത്</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>/enʈe amʲajude peɾe elizabatʰ/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>My mother's name is Elizabeth.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_05.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0004_എ_06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>വീട്ടിൽ എത്ര പേർ ഉണ്ട്</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>/ʋiːʈʈil etɾə peɾ uɳʈʊ/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>How many people are at home?</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_06.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0004_എ_07</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>എന്റെ സുഹൃത്ത് എബിന്</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>/enʈe suhɾutː ɛbin/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>My friend is Ebin.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_07.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0004_എ_08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ഞാൻ എങ്ങോട്ട് പോകുന്നു</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>/ɲaːn eŋɡoʈʈ pokuɳɳu/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Where am I going?</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_08.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0004_എ_09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>എന്റെ വീട് എവിടെയാണ്</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>/enʈe ʋiːʈ eʋiʈejɑːɳʊ/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Where is my house?</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_09.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0004_എ_10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>എ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The character എ is pronounced as /e/ and represents the vowel 'e' in Malayalam, often used in various words and contexts.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>അവൾ എന്നെ എങ്ങനെ സ്നേഹിക്കുന്നു</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>/aʋəl enʈe eŋɡɛne sneːhikkunnu/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>How does she love me?</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[sound:0004_എ_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>&lt;img src="0004_എ_10.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>എന്റെ പുസ്തകം യുടെ പേര് മലയാളം.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>/enʲte puʂtʰakəm juʈe peːrə maləjaːɭəm/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>The name of my book is in Malayalam.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_01.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>അമ്മയുടെ പേര് സാറ.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>/amʲːajjuʈe peːrə saːrs/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Mom's name is Sar.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_02.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>എന്റെ യുടെ സുഹൃത്ത് ഇവിടെയുണ്ട്.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>/enʲte juʈe suhṛt̪ iviʈejuɳʈ/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>My friend is here.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_03.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_04</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ഞാൻ എന്റെ യുടെ പുസ്തകം വായിക്കുന്നു.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>/ɲaːn enʲte juʈe puʂtʰakəm vaːjikkunnu/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I am reading my book.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_04.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_05</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>അവളുടെ പിതാവ് ഒരു ഡോക്ടർ.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>/avaljuʈe pit̪aːv oru doːkt̪ər/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Her father is a doctor.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_05.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_06</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>എന്റെ അമ്മയുടെ സ്വപ്നം ഞാൻ ഡോക്ടർ.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>/enʲte amʲːajjuʈe swapnəm ɲaːn doːkt̪ər/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>My mother's dream is I am a doctor.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_06.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ഞാൻ എന്റെ യുടെ ജോലി ചെയ്യുന്നു.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>/ɲaːn enʲte juʈe d͡ʒoːli t͡ʃejjunnu/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I am doing my job.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_07.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>അവന്റെ യുടെ സുഹൃത്തുക്കൾ എല്ലാം ഇവിടെ.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>/avanʲte juʈe suhṛt̪tukkaɭ elɭaːm iviʈe/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>All his friends are here.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_08.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>എന്റെ യുടെ അമ്മയും പിതാവും എന്നെ സ്നേഹിക്കുന്നു.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>/enʲte juʈe amʲːajjuːm pit̪aːvum enne snehikkunnu/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>My mom and dad love me.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_09.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0005_യുടെ_10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>യുടെ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The word യുടെ means 'of' or 'belonging to' in English, used to show possession or relationship.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>അവരുടെ യുടെ പുസ്തകങ്ങൾ എല്ലാം മലയാളത്തിലാണ്.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>/avarjuʈe juʈe puʂtʰakangɡaɭ elɭaːm maləjaːɭat̪t̪ilɑːɳ/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>All their books are in Malayalam.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[sound:0005_യുടെ_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>&lt;img src="0005_യുടെ_10.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0006_വരെ_01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ഞാൻ വരെ വരില്ല</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>/ɲaːn ʋəre ʋəriːlʲ/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I will come till then</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_01.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0006_വരെ_02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>നിങ്ങൾ വരെ കാത്തിരിക്കുന്നു</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>/niŋɡəl ʋəre kaːt̪t̪irikkuɳɳu/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I am waiting till you come</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_02.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0006_വരെ_03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ഞാൻ രാത്രി വരെ ജോലി ചെയ്യും</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>/ɲaːn raːt̪ri ʋəre dʒoːli t͡ʃejjum/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I will work until night</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_03.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0006_വരെ_04</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>നമ്മൾ വരെ പോകില്ല</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>/namməl ʋəre poːkilʲ/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>We will not go until then</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_04.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0006_വരെ_05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>അവൻ വരെ വന്നിട്ടില്ല</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>/əʋən ʋəre ʋənːit̪t̪ilʲ/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>He has not come until now</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_05.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0006_വരെ_06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ഞാൻ വരെ പഠിക്കും</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>/ɲaːn ʋəre pət̪t̪ikkuɳɳum/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I will study till then</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_06.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0006_വരെ_07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>നിങ്ങൾക്ക് വരെ കഴിയും</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>/niŋɡəlk ʋəre kaʒijum/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>You can do it until then</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_07.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0006_വരെ_08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>അവൾ വരെ വരികയാണ്</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>/əʋəl ʋəre ʋərikəjaːɳ/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>She will come until then</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_08.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0006_വരെ_09</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ഞാൻ വരെ കണ്ടിട്ടില്ല</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>/ɲaːn ʋəre kənːit̪t̪ilʲ/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I have not seen until now</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_09.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0006_വരെ_10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>വരെ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The word വരെ means 'until' or 'till' in English, indicating a point in time or a duration.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>നമ്മൾ വരെ ഒരുമിച്ച് പോകും</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>/namməl ʋəre orumitt͡ʃ pɔːkum/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>We will go together until then</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[sound:0006_വരെ_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>&lt;img src="0006_വരെ_10.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ഞാൻ ഇൻ കിടക്കുന്നു</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>/ɲaːn ɪn kiʈəkʊɳɳu/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I am in</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_01.mp3]</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_01.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ഇൻ കുട്ടികൾ കളിക്കുന്നു</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>/ɪn kuʈʈikaɭ kəɭikkʊɳɳu/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>The kids are playing inside</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_02.mp3]</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_02.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>മഞ്ഞ ഇൻ കാർ ഉണ്ട്</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>/maɲɲa ɪn kaːr uɳʈʊ/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>There is a yellow car inside</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_03.mp3]</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_03.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>നിങ്ങൾ ഇൻ വന്നത് എപ്പോളാണ്</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>/niŋŋaɭ ɪn van̪nət ɛppoːɭaːɳ/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>When did you come in</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_04.mp3]</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_04.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_05</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ഇൻ വീട്ടിൽ ആരുമില്ല</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>/ɪn viːʈʈil aːrumillə/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>There is no one inside the house</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_05.mp3]</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_05.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_06</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ഞാൻ ഇൻ പോകും</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>/ɲaːn ɪn poːkʊm/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I will go in</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_06.mp3]</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_06.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_07</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ഇൻ ഒരു മിനിറ്റ് കഴിഞ്ഞു</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>/ɪn oru miniʈʈ kaʐiɲɲu/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>A minute has passed inside</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_07.mp3]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_07.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_08</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ഇൻ കാര്യങ്ങൾ നല്ലതാണ്</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>/ɪn kaːrjaŋŋaɭ nəɭɭət̪aːɳ/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>The things inside are good</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_08.mp3]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_08.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_09</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>അവൻ ഇൻ കയറി വന്നു</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>/əvən ɪn kəjaʈi van̪n̪u/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>He came in climbing</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_09.mp3]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_09.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0007_ഇൻ_10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ഇൻ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The word ഇൻ means 'in' or 'inside', used to indicate a location or position within something.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ഇൻ ഒരു ദിവസം എന്തെങ്കിലും സംഭവിക്കും</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>/ɪn oru divəsəm entʰeŋkilum səmbʱəvikʷʊm/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>One day something will happen inside</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[sound:0007_ഇൻ_10.mp3]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>&lt;img src="0007_ഇൻ_10.jpg"&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
